--- a/MFE19_ChassisConstantsReport_A1.xlsx
+++ b/MFE19_ChassisConstantsReport_A1.xlsx
@@ -1974,7 +1974,7 @@
   <dimension ref="Q1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1985,7 @@
     <col min="20" max="20" width="11" style="1" customWidth="1"/>
     <col min="21" max="21" width="14.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
